--- a/Greyform/Python_Application/Pin Allocation BOM for PBU_T1a.xlsx
+++ b/Greyform/Python_Application/Pin Allocation BOM for PBU_T1a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://winsystechnology-my.sharepoint.com/personal/zhizhuan_mok_winsys_com_sg/Documents/Desktop/Greyform/Python_Application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{3ACD32A4-5BFF-4256-9E0C-DDA2086516B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0193399B-5B30-4AEE-B7AD-FC69227D4FC4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B80623-A1C9-4A9A-946E-E88EB5BCD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D0410EE5-F139-4311-88E5-7573157F1556}"/>
+    <workbookView xWindow="1170" yWindow="735" windowWidth="23235" windowHeight="15465" xr2:uid="{D0410EE5-F139-4311-88E5-7573157F1556}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,9 +456,6 @@
     <t>TMP2S2c4</t>
   </si>
   <si>
-    <t>BOX-UP1</t>
-  </si>
-  <si>
     <t>TMP3S2a1</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>Floor:BSS.20mm Floor Finishes (600x600mm)</t>
+  </si>
+  <si>
+    <t>BOX-UP</t>
   </si>
 </sst>
 </file>
@@ -943,10 +943,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1246,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE7395A-F4EF-492B-9DD4-523BBD7B1322}">
   <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1306,7 @@
         <v>114</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -1526,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>115</v>
@@ -1615,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>115</v>
@@ -1820,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>115</v>
@@ -2415,7 +2411,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>115</v>
@@ -2431,7 +2427,7 @@
         <v>116</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K57"/>
       <c r="L57" s="6" t="s">
@@ -2444,7 +2440,7 @@
       <c r="A58" s="30"/>
       <c r="B58" s="28"/>
       <c r="J58" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K58"/>
       <c r="L58" s="6" t="s">
@@ -2457,7 +2453,7 @@
       <c r="A59" s="30"/>
       <c r="B59" s="29"/>
       <c r="J59" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K59"/>
       <c r="L59" s="6" t="s">
@@ -2549,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>115</v>
@@ -2565,7 +2561,7 @@
         <v>116</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="6" t="s">
@@ -2578,7 +2574,7 @@
       <c r="A64" s="30"/>
       <c r="B64" s="28"/>
       <c r="J64" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K64" s="19"/>
       <c r="L64" s="6" t="s">
@@ -2591,7 +2587,7 @@
       <c r="A65" s="30"/>
       <c r="B65" s="28"/>
       <c r="J65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K65" s="19"/>
       <c r="L65" s="6" t="s">
@@ -2604,7 +2600,7 @@
       <c r="A66" s="30"/>
       <c r="B66" s="28"/>
       <c r="J66" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K66" s="19"/>
       <c r="L66" s="6" t="s">
@@ -2617,7 +2613,7 @@
       <c r="A67" s="30"/>
       <c r="B67" s="29"/>
       <c r="J67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K67" s="19"/>
       <c r="L67" s="6" t="s">
@@ -2965,7 +2961,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>115</v>
@@ -2981,7 +2977,7 @@
         <v>116</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K85"/>
       <c r="L85" s="6" t="s">
@@ -2992,7 +2988,7 @@
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="28"/>
       <c r="J86" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K86"/>
       <c r="L86" s="6" t="s">
@@ -3003,7 +2999,7 @@
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="28"/>
       <c r="J87" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K87"/>
       <c r="L87" s="6" t="s">
@@ -3014,7 +3010,7 @@
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="28"/>
       <c r="J88" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K88"/>
       <c r="L88" s="6" t="s">
@@ -3060,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>115</v>
@@ -3076,7 +3072,7 @@
         <v>116</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="6" t="s">
@@ -3087,7 +3083,7 @@
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="28"/>
       <c r="J91" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="6" t="s">
@@ -3098,7 +3094,7 @@
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
       <c r="J92" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="6" t="s">
@@ -3109,7 +3105,7 @@
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="28"/>
       <c r="J93" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K93"/>
       <c r="L93" s="6" t="s">
@@ -3120,7 +3116,7 @@
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="28"/>
       <c r="J94" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="6" t="s">
@@ -3131,7 +3127,7 @@
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="29"/>
       <c r="J95" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L95" s="6" t="s">
         <v>40</v>
@@ -3366,7 +3362,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>115</v>
@@ -3382,7 +3378,7 @@
         <v>116</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="6" t="s">
@@ -3393,7 +3389,7 @@
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="28"/>
       <c r="J110" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K110"/>
       <c r="L110" s="6" t="s">
@@ -3404,7 +3400,7 @@
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="28"/>
       <c r="J111" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K111"/>
       <c r="L111" s="6" t="s">
@@ -3415,7 +3411,7 @@
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="28"/>
       <c r="J112" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K112"/>
       <c r="L112" s="6" t="s">
@@ -3426,7 +3422,7 @@
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="28"/>
       <c r="J113" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K113"/>
       <c r="L113" s="6" t="s">
@@ -3437,7 +3433,7 @@
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="28"/>
       <c r="J114" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="6" t="s">
@@ -3448,7 +3444,7 @@
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="28"/>
       <c r="J115" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K115"/>
       <c r="L115" s="6" t="s">
@@ -3459,7 +3455,7 @@
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="28"/>
       <c r="J116" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K116"/>
       <c r="L116" s="6" t="s">
@@ -3470,7 +3466,7 @@
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
       <c r="J117" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K117"/>
       <c r="L117" s="6" t="s">
@@ -3481,7 +3477,7 @@
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="28"/>
       <c r="J118" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K118"/>
       <c r="L118" s="6" t="s">
@@ -3492,7 +3488,7 @@
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="28"/>
       <c r="J119" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K119"/>
       <c r="L119" s="6" t="s">
@@ -3503,7 +3499,7 @@
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="28"/>
       <c r="J120" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K120"/>
       <c r="L120" s="6" t="s">
@@ -3514,7 +3510,7 @@
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="28"/>
       <c r="J121" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K121"/>
       <c r="L121" s="6" t="s">
@@ -3525,7 +3521,7 @@
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="28"/>
       <c r="J122" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K122"/>
       <c r="L122" s="6" t="s">
@@ -3539,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>115</v>
@@ -3555,7 +3551,7 @@
         <v>116</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K123"/>
       <c r="L123" s="6" t="s">
@@ -3566,7 +3562,7 @@
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="28"/>
       <c r="J124" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K124"/>
       <c r="L124" s="6" t="s">
@@ -3580,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>115</v>
@@ -3596,7 +3592,7 @@
         <v>116</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K125"/>
       <c r="L125" s="6" t="s">
@@ -3607,7 +3603,7 @@
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="28"/>
       <c r="J126" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K126"/>
       <c r="L126" s="6" t="s">
@@ -3618,7 +3614,7 @@
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
       <c r="J127" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K127"/>
       <c r="L127" s="6" t="s">
@@ -3629,7 +3625,7 @@
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="28"/>
       <c r="J128" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K128"/>
       <c r="L128" s="6" t="s">
@@ -3640,7 +3636,7 @@
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="28"/>
       <c r="J129" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K129"/>
       <c r="L129" s="6" t="s">
@@ -3651,7 +3647,7 @@
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="29"/>
       <c r="J130" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="6" t="s">
